--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H2">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I2">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J2">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N2">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O2">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P2">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q2">
-        <v>465.4377134220391</v>
+        <v>381.0520203506683</v>
       </c>
       <c r="R2">
-        <v>4188.939420798351</v>
+        <v>3429.468183156015</v>
       </c>
       <c r="S2">
-        <v>0.002063914593892981</v>
+        <v>0.001293207979457386</v>
       </c>
       <c r="T2">
-        <v>0.002165575586183663</v>
+        <v>0.001348156263951756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H3">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I3">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J3">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.253893</v>
       </c>
       <c r="O3">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P3">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q3">
-        <v>279.7265500842296</v>
+        <v>374.8788757290096</v>
       </c>
       <c r="R3">
-        <v>2517.538950758067</v>
+        <v>3373.909881561087</v>
       </c>
       <c r="S3">
-        <v>0.00124040594986053</v>
+        <v>0.001272257664390884</v>
       </c>
       <c r="T3">
-        <v>0.001301503875171594</v>
+        <v>0.001326315771983467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H4">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I4">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J4">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N4">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O4">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P4">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q4">
-        <v>164.3851052026454</v>
+        <v>271.8035978387803</v>
       </c>
       <c r="R4">
-        <v>1479.465946823809</v>
+        <v>2446.232380549023</v>
       </c>
       <c r="S4">
-        <v>0.0007289413983063533</v>
+        <v>0.0009224425086287843</v>
       </c>
       <c r="T4">
-        <v>0.0007648464236852398</v>
+        <v>0.0009616370034037878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H5">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I5">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J5">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N5">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O5">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P5">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q5">
-        <v>163.9378776928643</v>
+        <v>170.5762225988241</v>
       </c>
       <c r="R5">
-        <v>983.627266157186</v>
+        <v>1023.457335592945</v>
       </c>
       <c r="S5">
-        <v>0.0007269582341629898</v>
+        <v>0.0005788987340035548</v>
       </c>
       <c r="T5">
-        <v>0.0005085103840171105</v>
+        <v>0.000402330724234112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H6">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I6">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J6">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N6">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O6">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P6">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q6">
-        <v>153.8562859948573</v>
+        <v>325.0864854039586</v>
       </c>
       <c r="R6">
-        <v>1384.706573953716</v>
+        <v>2925.778368635628</v>
       </c>
       <c r="S6">
-        <v>0.0006822529091857687</v>
+        <v>0.001103273082114283</v>
       </c>
       <c r="T6">
-        <v>0.0007158582279069302</v>
+        <v>0.001150151050820008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J7">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N7">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O7">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P7">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q7">
-        <v>757.7595932428411</v>
+        <v>462.9103188662983</v>
       </c>
       <c r="R7">
-        <v>6819.83633918557</v>
+        <v>4166.192869796685</v>
       </c>
       <c r="S7">
-        <v>0.003360172667697396</v>
+        <v>0.0015710173051442</v>
       </c>
       <c r="T7">
-        <v>0.003525682659572505</v>
+        <v>0.00163776968155999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J8">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>30.253893</v>
       </c>
       <c r="O8">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P8">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q8">
         <v>455.4110479200637</v>
@@ -948,10 +948,10 @@
         <v>4098.699431280574</v>
       </c>
       <c r="S8">
-        <v>0.002019452830995728</v>
+        <v>0.00154556640471633</v>
       </c>
       <c r="T8">
-        <v>0.002118923797134892</v>
+        <v>0.001611237374784833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J9">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N9">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O9">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P9">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q9">
-        <v>267.6284857488301</v>
+        <v>330.1929485343464</v>
       </c>
       <c r="R9">
-        <v>2408.656371739471</v>
+        <v>2971.736536809117</v>
       </c>
       <c r="S9">
-        <v>0.001186758875677166</v>
+        <v>0.001120603311359479</v>
       </c>
       <c r="T9">
-        <v>0.001245214339516661</v>
+        <v>0.001168217639863508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J10">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N10">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O10">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P10">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q10">
-        <v>266.9003734233223</v>
+        <v>207.2197216578591</v>
       </c>
       <c r="R10">
-        <v>1601.402240539934</v>
+        <v>1243.318329947155</v>
       </c>
       <c r="S10">
-        <v>0.001183530169426527</v>
+        <v>0.000703258828813639</v>
       </c>
       <c r="T10">
-        <v>0.0008278843992239347</v>
+        <v>0.0004887601532030426</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J11">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N11">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O11">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P11">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q11">
-        <v>250.4869573978893</v>
+        <v>394.9221643779347</v>
       </c>
       <c r="R11">
-        <v>2254.382616581004</v>
+        <v>3554.299479401413</v>
       </c>
       <c r="S11">
-        <v>0.001110747307415922</v>
+        <v>0.001340280242493224</v>
       </c>
       <c r="T11">
-        <v>0.001165458715431655</v>
+        <v>0.001397228622983114</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H12">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I12">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J12">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N12">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O12">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P12">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q12">
-        <v>43840.16583713197</v>
+        <v>24351.52910551269</v>
       </c>
       <c r="R12">
-        <v>394561.4925341877</v>
+        <v>219163.7619496143</v>
       </c>
       <c r="S12">
-        <v>0.1944027212678824</v>
+        <v>0.08264381257513667</v>
       </c>
       <c r="T12">
-        <v>0.203978298477608</v>
+        <v>0.08615534033959066</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H13">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I13">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J13">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>30.253893</v>
       </c>
       <c r="O13">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P13">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q13">
-        <v>26347.79690407604</v>
+        <v>23957.02782248966</v>
       </c>
       <c r="R13">
-        <v>237130.1721366843</v>
+        <v>215613.2504024069</v>
       </c>
       <c r="S13">
-        <v>0.1168354024160086</v>
+        <v>0.08130496071275296</v>
       </c>
       <c r="T13">
-        <v>0.1225902931365054</v>
+        <v>0.08475960078845256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H14">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I14">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J14">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N14">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O14">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P14">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q14">
-        <v>15483.64059339485</v>
+        <v>17369.89405715014</v>
       </c>
       <c r="R14">
-        <v>139352.7653405536</v>
+        <v>156329.0465143513</v>
       </c>
       <c r="S14">
-        <v>0.06865991058684201</v>
+        <v>0.05894965620800072</v>
       </c>
       <c r="T14">
-        <v>0.07204185025697249</v>
+        <v>0.06145442151382699</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H15">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I15">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J15">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N15">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O15">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P15">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q15">
-        <v>15441.51566962883</v>
+        <v>10900.85244923015</v>
       </c>
       <c r="R15">
-        <v>92649.09401777299</v>
+        <v>65405.11469538089</v>
       </c>
       <c r="S15">
-        <v>0.06847311385245604</v>
+        <v>0.03699513089383176</v>
       </c>
       <c r="T15">
-        <v>0.04789723505924687</v>
+        <v>0.02571136699974145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H16">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I16">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J16">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N16">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O16">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P16">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q16">
-        <v>14491.91781969673</v>
+        <v>20774.99288374904</v>
       </c>
       <c r="R16">
-        <v>130427.2603772706</v>
+        <v>186974.9359537413</v>
       </c>
       <c r="S16">
-        <v>0.06426226285287856</v>
+        <v>0.0705058237080347</v>
       </c>
       <c r="T16">
-        <v>0.06742759024956396</v>
+        <v>0.07350160947580005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H17">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I17">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J17">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N17">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O17">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P17">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q17">
-        <v>649.8919106696162</v>
+        <v>788.8330593529748</v>
       </c>
       <c r="R17">
-        <v>3899.351464017697</v>
+        <v>4732.99835611785</v>
       </c>
       <c r="S17">
-        <v>0.002881849407995354</v>
+        <v>0.002677128455784763</v>
       </c>
       <c r="T17">
-        <v>0.002015865946998317</v>
+        <v>0.001860586260112671</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H18">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I18">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J18">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>30.253893</v>
       </c>
       <c r="O18">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P18">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q18">
-        <v>390.582921961072</v>
+        <v>776.053752860255</v>
       </c>
       <c r="R18">
-        <v>2343.497531766433</v>
+        <v>4656.32251716153</v>
       </c>
       <c r="S18">
-        <v>0.001731982109558569</v>
+        <v>0.002633758258946262</v>
       </c>
       <c r="T18">
-        <v>0.001211528869545656</v>
+        <v>0.001830444265184586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H19">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I19">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J19">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N19">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O19">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P19">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q19">
-        <v>229.5313573116107</v>
+        <v>562.672947984895</v>
       </c>
       <c r="R19">
-        <v>1377.188143869664</v>
+        <v>3376.03768790937</v>
       </c>
       <c r="S19">
-        <v>0.001017822803030868</v>
+        <v>0.001909590048858012</v>
       </c>
       <c r="T19">
-        <v>0.0007119713899747292</v>
+        <v>0.001327152232712569</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H20">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I20">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J20">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N20">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O20">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P20">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q20">
-        <v>228.906892356464</v>
+        <v>353.1175701461374</v>
       </c>
       <c r="R20">
-        <v>915.6275694258561</v>
+        <v>1412.47028058455</v>
       </c>
       <c r="S20">
-        <v>0.00101505370569059</v>
+        <v>0.001198404509125409</v>
       </c>
       <c r="T20">
-        <v>0.0004733562630531947</v>
+        <v>0.0005552553791775848</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H21">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I21">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J21">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N21">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O21">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P21">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q21">
-        <v>214.829939195456</v>
+        <v>672.97626869822</v>
       </c>
       <c r="R21">
-        <v>1288.979635172736</v>
+        <v>4037.85761218932</v>
       </c>
       <c r="S21">
-        <v>0.0009526315421470706</v>
+        <v>0.002283935615575774</v>
       </c>
       <c r="T21">
-        <v>0.0006663698250584882</v>
+        <v>0.001587319882294026</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H22">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I22">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J22">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N22">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O22">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P22">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q22">
-        <v>39806.27000664716</v>
+        <v>47718.98814588191</v>
       </c>
       <c r="R22">
-        <v>358256.4300598244</v>
+        <v>429470.8933129373</v>
       </c>
       <c r="S22">
-        <v>0.1765150077571546</v>
+        <v>0.1619479046065598</v>
       </c>
       <c r="T22">
-        <v>0.1852095006862163</v>
+        <v>0.1688290557260589</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H23">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I23">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J23">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>30.253893</v>
       </c>
       <c r="O23">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P23">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q23">
-        <v>23923.43864620212</v>
+        <v>46945.92777802806</v>
       </c>
       <c r="R23">
-        <v>215310.9478158191</v>
+        <v>422513.3500022526</v>
       </c>
       <c r="S23">
-        <v>0.1060849448468047</v>
+        <v>0.1593243052476301</v>
       </c>
       <c r="T23">
-        <v>0.1113103067838441</v>
+        <v>0.1660939798789977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H24">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I24">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J24">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N24">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O24">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P24">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q24">
-        <v>14058.93354592472</v>
+        <v>34037.85302421654</v>
       </c>
       <c r="R24">
-        <v>126530.4019133225</v>
+        <v>306340.6772179488</v>
       </c>
       <c r="S24">
-        <v>0.06234225822971669</v>
+        <v>0.1155170968362964</v>
       </c>
       <c r="T24">
-        <v>0.06541301312046079</v>
+        <v>0.1204254073337215</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H25">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I25">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J25">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N25">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O25">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P25">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q25">
-        <v>14020.68469222128</v>
+        <v>21361.19036102187</v>
       </c>
       <c r="R25">
-        <v>84124.10815332766</v>
+        <v>128167.1421661312</v>
       </c>
       <c r="S25">
-        <v>0.06217264935385268</v>
+        <v>0.07249525091130574</v>
       </c>
       <c r="T25">
-        <v>0.04349003328188501</v>
+        <v>0.05038371150160471</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H26">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I26">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J26">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N26">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O26">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P26">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q26">
-        <v>13158.4628531763</v>
+        <v>40710.44716965956</v>
       </c>
       <c r="R26">
-        <v>118426.1656785867</v>
+        <v>366394.024526936</v>
       </c>
       <c r="S26">
-        <v>0.05834925433136006</v>
+        <v>0.1381624353510392</v>
       </c>
       <c r="T26">
-        <v>0.06122332824522234</v>
+        <v>0.1440329441359366</v>
       </c>
     </row>
   </sheetData>
